--- a/Tratamento/src/Dados_limpos/novos/limpo_petz_20251003_184627.xlsx
+++ b/Tratamento/src/Dados_limpos/novos/limpo_petz_20251003_184627.xlsx
@@ -5223,7 +5223,7 @@
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
@@ -5367,7 +5367,7 @@
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
@@ -5667,7 +5667,7 @@
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
@@ -5819,7 +5819,7 @@
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
